--- a/дах/вартість_квадрату_даху.xlsx
+++ b/дах/вартість_квадрату_даху.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="20730" windowHeight="10050" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="підїзд1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,13 @@
     <sheet name="комерція" sheetId="6" r:id="rId6"/>
     <sheet name="розрахунок" sheetId="7" r:id="rId7"/>
     <sheet name="витрати" sheetId="8" r:id="rId8"/>
-    <sheet name="Лист1" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="342">
   <si>
     <t>підїзд</t>
   </si>
@@ -874,9 +873,6 @@
   </si>
   <si>
     <t>матал на дах 600м2*328грн</t>
-  </si>
-  <si>
-    <t>здано коштів %</t>
   </si>
   <si>
     <t>дах</t>
@@ -1514,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="160">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1811,9 +1807,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2263,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L76"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
@@ -2311,10 +2304,10 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="124">
-        <v>1</v>
-      </c>
-      <c r="C3" s="127">
+      <c r="B3" s="123">
+        <v>1</v>
+      </c>
+      <c r="C3" s="126">
         <v>2</v>
       </c>
       <c r="D3" s="63" t="s">
@@ -2344,8 +2337,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="125"/>
-      <c r="C4" s="128"/>
+      <c r="B4" s="124"/>
+      <c r="C4" s="127"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -2371,8 +2364,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="125"/>
-      <c r="C5" s="128"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="127"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
@@ -2398,8 +2391,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="125"/>
-      <c r="C6" s="128"/>
+      <c r="B6" s="124"/>
+      <c r="C6" s="127"/>
       <c r="D6" s="63" t="s">
         <v>9</v>
       </c>
@@ -2427,8 +2420,8 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="125"/>
-      <c r="C7" s="129"/>
+      <c r="B7" s="124"/>
+      <c r="C7" s="128"/>
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
@@ -2454,8 +2447,8 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="125"/>
-      <c r="C8" s="127">
+      <c r="B8" s="124"/>
+      <c r="C8" s="126">
         <v>3</v>
       </c>
       <c r="D8" s="63" t="s">
@@ -2485,8 +2478,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="125"/>
-      <c r="C9" s="128"/>
+      <c r="B9" s="124"/>
+      <c r="C9" s="127"/>
       <c r="D9" s="63" t="s">
         <v>244</v>
       </c>
@@ -2514,8 +2507,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="125"/>
-      <c r="C10" s="128"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="63" t="s">
         <v>12</v>
       </c>
@@ -2543,8 +2536,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B11" s="125"/>
-      <c r="C11" s="128"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="127"/>
       <c r="D11" s="75" t="s">
         <v>13</v>
       </c>
@@ -2572,8 +2565,8 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B12" s="125"/>
-      <c r="C12" s="129"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="128"/>
       <c r="D12" s="63" t="s">
         <v>14</v>
       </c>
@@ -2603,8 +2596,8 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="125"/>
-      <c r="C13" s="130">
+      <c r="B13" s="124"/>
+      <c r="C13" s="129">
         <v>4</v>
       </c>
       <c r="D13" s="90" t="s">
@@ -2634,8 +2627,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="125"/>
-      <c r="C14" s="131"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="130"/>
       <c r="D14" s="90" t="s">
         <v>16</v>
       </c>
@@ -2663,8 +2656,8 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="125"/>
-      <c r="C15" s="131"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="130"/>
       <c r="D15" s="40" t="s">
         <v>17</v>
       </c>
@@ -2690,8 +2683,8 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="125"/>
-      <c r="C16" s="131"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="130"/>
       <c r="D16" s="63" t="s">
         <v>18</v>
       </c>
@@ -2721,8 +2714,8 @@
       </c>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B17" s="125"/>
-      <c r="C17" s="132"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="131"/>
       <c r="D17" s="63" t="s">
         <v>19</v>
       </c>
@@ -2752,8 +2745,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B18" s="125"/>
-      <c r="C18" s="130">
+      <c r="B18" s="124"/>
+      <c r="C18" s="129">
         <v>5</v>
       </c>
       <c r="D18" s="63" t="s">
@@ -2783,8 +2776,8 @@
       </c>
     </row>
     <row r="19" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B19" s="125"/>
-      <c r="C19" s="131"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="130"/>
       <c r="D19" s="63" t="s">
         <v>12</v>
       </c>
@@ -2812,8 +2805,8 @@
       </c>
     </row>
     <row r="20" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B20" s="125"/>
-      <c r="C20" s="131"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="130"/>
       <c r="D20" s="63" t="s">
         <v>21</v>
       </c>
@@ -2841,8 +2834,8 @@
       </c>
     </row>
     <row r="21" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B21" s="125"/>
-      <c r="C21" s="131"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="130"/>
       <c r="D21" s="3" t="s">
         <v>22</v>
       </c>
@@ -2868,8 +2861,8 @@
       </c>
     </row>
     <row r="22" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B22" s="125"/>
-      <c r="C22" s="132"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="131"/>
       <c r="D22" s="63" t="s">
         <v>23</v>
       </c>
@@ -2897,8 +2890,8 @@
       </c>
     </row>
     <row r="23" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B23" s="125"/>
-      <c r="C23" s="130">
+      <c r="B23" s="124"/>
+      <c r="C23" s="129">
         <v>6</v>
       </c>
       <c r="D23" s="63" t="s">
@@ -2930,8 +2923,8 @@
       </c>
     </row>
     <row r="24" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B24" s="125"/>
-      <c r="C24" s="131"/>
+      <c r="B24" s="124"/>
+      <c r="C24" s="130"/>
       <c r="D24" s="63" t="s">
         <v>25</v>
       </c>
@@ -2959,8 +2952,8 @@
       </c>
     </row>
     <row r="25" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B25" s="125"/>
-      <c r="C25" s="131"/>
+      <c r="B25" s="124"/>
+      <c r="C25" s="130"/>
       <c r="D25" s="63" t="s">
         <v>26</v>
       </c>
@@ -2988,8 +2981,8 @@
       </c>
     </row>
     <row r="26" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B26" s="125"/>
-      <c r="C26" s="131"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="130"/>
       <c r="D26" s="63" t="s">
         <v>27</v>
       </c>
@@ -3017,8 +3010,8 @@
       </c>
     </row>
     <row r="27" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B27" s="125"/>
-      <c r="C27" s="132"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="131"/>
       <c r="D27" s="63" t="s">
         <v>28</v>
       </c>
@@ -3048,8 +3041,8 @@
       </c>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B28" s="125"/>
-      <c r="C28" s="130">
+      <c r="B28" s="124"/>
+      <c r="C28" s="129">
         <v>7</v>
       </c>
       <c r="D28" s="63" t="s">
@@ -3079,8 +3072,8 @@
       </c>
     </row>
     <row r="29" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B29" s="125"/>
-      <c r="C29" s="131"/>
+      <c r="B29" s="124"/>
+      <c r="C29" s="130"/>
       <c r="D29" s="63" t="s">
         <v>30</v>
       </c>
@@ -3108,8 +3101,8 @@
       </c>
     </row>
     <row r="30" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B30" s="125"/>
-      <c r="C30" s="131"/>
+      <c r="B30" s="124"/>
+      <c r="C30" s="130"/>
       <c r="D30" s="63" t="s">
         <v>31</v>
       </c>
@@ -3137,8 +3130,8 @@
       </c>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B31" s="125"/>
-      <c r="C31" s="131"/>
+      <c r="B31" s="124"/>
+      <c r="C31" s="130"/>
       <c r="D31" s="63" t="s">
         <v>32</v>
       </c>
@@ -3166,8 +3159,8 @@
       </c>
     </row>
     <row r="32" spans="2:11" ht="24.75" thickBot="1">
-      <c r="B32" s="125"/>
-      <c r="C32" s="132"/>
+      <c r="B32" s="124"/>
+      <c r="C32" s="131"/>
       <c r="D32" s="63" t="s">
         <v>33</v>
       </c>
@@ -3197,8 +3190,8 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B33" s="125"/>
-      <c r="C33" s="130">
+      <c r="B33" s="124"/>
+      <c r="C33" s="129">
         <v>8</v>
       </c>
       <c r="D33" s="46" t="s">
@@ -3226,8 +3219,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B34" s="125"/>
-      <c r="C34" s="131"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="130"/>
       <c r="D34" s="63" t="s">
         <v>35</v>
       </c>
@@ -3255,8 +3248,8 @@
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B35" s="125"/>
-      <c r="C35" s="131"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="130"/>
       <c r="D35" s="3" t="s">
         <v>17</v>
       </c>
@@ -3282,8 +3275,8 @@
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B36" s="125"/>
-      <c r="C36" s="131"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="130"/>
       <c r="D36" s="63" t="s">
         <v>36</v>
       </c>
@@ -3311,8 +3304,8 @@
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B37" s="125"/>
-      <c r="C37" s="132"/>
+      <c r="B37" s="124"/>
+      <c r="C37" s="131"/>
       <c r="D37" s="63" t="s">
         <v>37</v>
       </c>
@@ -3340,8 +3333,8 @@
       </c>
     </row>
     <row r="38" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B38" s="125"/>
-      <c r="C38" s="130">
+      <c r="B38" s="124"/>
+      <c r="C38" s="129">
         <v>9</v>
       </c>
       <c r="D38" s="63" t="s">
@@ -3371,8 +3364,8 @@
       </c>
     </row>
     <row r="39" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B39" s="125"/>
-      <c r="C39" s="131"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="130"/>
       <c r="D39" s="63" t="s">
         <v>39</v>
       </c>
@@ -3400,8 +3393,8 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B40" s="125"/>
-      <c r="C40" s="131"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="130"/>
       <c r="D40" s="63" t="s">
         <v>40</v>
       </c>
@@ -3429,8 +3422,8 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B41" s="125"/>
-      <c r="C41" s="131"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="130"/>
       <c r="D41" s="91" t="s">
         <v>41</v>
       </c>
@@ -3460,8 +3453,8 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B42" s="125"/>
-      <c r="C42" s="132"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="131"/>
       <c r="D42" s="63" t="s">
         <v>42</v>
       </c>
@@ -3491,8 +3484,8 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B43" s="125"/>
-      <c r="C43" s="130">
+      <c r="B43" s="124"/>
+      <c r="C43" s="129">
         <v>10</v>
       </c>
       <c r="D43" s="63" t="s">
@@ -3520,13 +3513,13 @@
         <f t="shared" si="0"/>
         <v>-0.62900000000081491</v>
       </c>
-      <c r="L43" s="118">
+      <c r="L43" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B44" s="125"/>
-      <c r="C44" s="131"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="130"/>
       <c r="D44" s="63" t="s">
         <v>43</v>
       </c>
@@ -3552,14 +3545,14 @@
         <f t="shared" si="0"/>
         <v>-0.14399999999932334</v>
       </c>
-      <c r="L44" s="118">
+      <c r="L44" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B45" s="125"/>
-      <c r="C45" s="131"/>
-      <c r="D45" s="122" t="s">
+      <c r="B45" s="124"/>
+      <c r="C45" s="130"/>
+      <c r="D45" s="121" t="s">
         <v>44</v>
       </c>
       <c r="E45" s="64">
@@ -3584,14 +3577,14 @@
         <f t="shared" si="0"/>
         <v>3258.0969999999998</v>
       </c>
-      <c r="L45" s="118">
+      <c r="L45" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="2:12" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B46" s="125"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="123"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="130"/>
+      <c r="D46" s="122"/>
       <c r="E46" s="64">
         <v>65.040000000000006</v>
       </c>
@@ -3614,13 +3607,13 @@
         <f t="shared" si="3"/>
         <v>5794.1839999999993</v>
       </c>
-      <c r="L46" s="118">
+      <c r="L46" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="2:12" ht="18.75" customHeight="1" thickBot="1">
-      <c r="B47" s="126"/>
-      <c r="C47" s="132"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="131"/>
       <c r="D47" s="63" t="s">
         <v>45</v>
       </c>
@@ -3646,7 +3639,7 @@
         <f t="shared" si="0"/>
         <v>7048.0310000000027</v>
       </c>
-      <c r="L47" s="118">
+      <c r="L47" s="117">
         <v>0.7</v>
       </c>
     </row>
@@ -3822,7 +3815,7 @@
     </row>
     <row r="62" spans="2:11" ht="15.75" thickBot="1">
       <c r="C62" s="54"/>
-      <c r="D62" s="120"/>
+      <c r="D62" s="119"/>
       <c r="E62" s="48"/>
       <c r="F62" s="49"/>
       <c r="G62" s="50"/>
@@ -3831,7 +3824,7 @@
     </row>
     <row r="63" spans="2:11" ht="15.75" thickBot="1">
       <c r="C63" s="54"/>
-      <c r="D63" s="121"/>
+      <c r="D63" s="120"/>
       <c r="E63" s="48"/>
       <c r="F63" s="49"/>
       <c r="G63" s="50"/>
@@ -3989,10 +3982,10 @@
       </c>
     </row>
     <row r="2" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B2" s="139">
+      <c r="B2" s="138">
         <v>2</v>
       </c>
-      <c r="C2" s="133">
+      <c r="C2" s="132">
         <v>2</v>
       </c>
       <c r="D2" s="7" t="s">
@@ -4014,8 +4007,8 @@
       </c>
     </row>
     <row r="3" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B3" s="140"/>
-      <c r="C3" s="134"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="133"/>
       <c r="D3" s="67" t="s">
         <v>50</v>
       </c>
@@ -4039,8 +4032,8 @@
       </c>
     </row>
     <row r="4" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B4" s="140"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="133"/>
       <c r="D4" s="67" t="s">
         <v>67</v>
       </c>
@@ -4064,8 +4057,8 @@
       </c>
     </row>
     <row r="5" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B5" s="140"/>
-      <c r="C5" s="135"/>
+      <c r="B5" s="139"/>
+      <c r="C5" s="134"/>
       <c r="D5" s="67" t="s">
         <v>68</v>
       </c>
@@ -4089,8 +4082,8 @@
       </c>
     </row>
     <row r="6" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B6" s="140"/>
-      <c r="C6" s="133">
+      <c r="B6" s="139"/>
+      <c r="C6" s="132">
         <v>3</v>
       </c>
       <c r="D6" s="67" t="s">
@@ -4120,8 +4113,8 @@
       </c>
     </row>
     <row r="7" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B7" s="140"/>
-      <c r="C7" s="134"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="133"/>
       <c r="D7" s="14" t="s">
         <v>53</v>
       </c>
@@ -4143,8 +4136,8 @@
       <c r="J7" s="95"/>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B8" s="140"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="139"/>
+      <c r="C8" s="133"/>
       <c r="D8" s="67" t="s">
         <v>69</v>
       </c>
@@ -4172,8 +4165,8 @@
       </c>
     </row>
     <row r="9" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B9" s="140"/>
-      <c r="C9" s="135"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="134"/>
       <c r="D9" s="38" t="s">
         <v>70</v>
       </c>
@@ -4196,8 +4189,8 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B10" s="140"/>
-      <c r="C10" s="133">
+      <c r="B10" s="139"/>
+      <c r="C10" s="132">
         <v>4</v>
       </c>
       <c r="D10" s="67" t="s">
@@ -4227,8 +4220,8 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B11" s="140"/>
-      <c r="C11" s="134"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="133"/>
       <c r="D11" s="67" t="s">
         <v>72</v>
       </c>
@@ -4256,8 +4249,8 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B12" s="140"/>
-      <c r="C12" s="134"/>
+      <c r="B12" s="139"/>
+      <c r="C12" s="133"/>
       <c r="D12" s="67" t="s">
         <v>73</v>
       </c>
@@ -4287,8 +4280,8 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B13" s="140"/>
-      <c r="C13" s="135"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="134"/>
       <c r="D13" s="102" t="s">
         <v>74</v>
       </c>
@@ -4316,8 +4309,8 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B14" s="140"/>
-      <c r="C14" s="133">
+      <c r="B14" s="139"/>
+      <c r="C14" s="132">
         <v>5</v>
       </c>
       <c r="D14" s="67" t="s">
@@ -4347,8 +4340,8 @@
       </c>
     </row>
     <row r="15" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B15" s="140"/>
-      <c r="C15" s="134"/>
+      <c r="B15" s="139"/>
+      <c r="C15" s="133"/>
       <c r="D15" s="67" t="s">
         <v>76</v>
       </c>
@@ -4376,8 +4369,8 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="15.75" thickBot="1">
-      <c r="B16" s="140"/>
-      <c r="C16" s="134"/>
+      <c r="B16" s="139"/>
+      <c r="C16" s="133"/>
       <c r="D16" s="67" t="s">
         <v>77</v>
       </c>
@@ -4405,8 +4398,8 @@
       </c>
     </row>
     <row r="17" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B17" s="140"/>
-      <c r="C17" s="135"/>
+      <c r="B17" s="139"/>
+      <c r="C17" s="134"/>
       <c r="D17" s="14" t="s">
         <v>78</v>
       </c>
@@ -4430,8 +4423,8 @@
       <c r="J17" s="95"/>
     </row>
     <row r="18" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B18" s="140"/>
-      <c r="C18" s="133">
+      <c r="B18" s="139"/>
+      <c r="C18" s="132">
         <v>6</v>
       </c>
       <c r="D18" s="67" t="s">
@@ -4464,8 +4457,8 @@
       </c>
     </row>
     <row r="19" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B19" s="140"/>
-      <c r="C19" s="134"/>
+      <c r="B19" s="139"/>
+      <c r="C19" s="133"/>
       <c r="D19" s="67" t="s">
         <v>54</v>
       </c>
@@ -4493,8 +4486,8 @@
       </c>
     </row>
     <row r="20" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B20" s="140"/>
-      <c r="C20" s="134"/>
+      <c r="B20" s="139"/>
+      <c r="C20" s="133"/>
       <c r="D20" s="67" t="s">
         <v>55</v>
       </c>
@@ -4522,8 +4515,8 @@
       </c>
     </row>
     <row r="21" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B21" s="140"/>
-      <c r="C21" s="135"/>
+      <c r="B21" s="139"/>
+      <c r="C21" s="134"/>
       <c r="D21" s="67" t="s">
         <v>56</v>
       </c>
@@ -4553,8 +4546,8 @@
       </c>
     </row>
     <row r="22" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B22" s="140"/>
-      <c r="C22" s="133">
+      <c r="B22" s="139"/>
+      <c r="C22" s="132">
         <v>7</v>
       </c>
       <c r="D22" s="67" t="s">
@@ -4584,8 +4577,8 @@
       </c>
     </row>
     <row r="23" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B23" s="140"/>
-      <c r="C23" s="134"/>
+      <c r="B23" s="139"/>
+      <c r="C23" s="133"/>
       <c r="D23" s="67" t="s">
         <v>80</v>
       </c>
@@ -4615,8 +4608,8 @@
       </c>
     </row>
     <row r="24" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B24" s="140"/>
-      <c r="C24" s="134"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="133"/>
       <c r="D24" s="67" t="s">
         <v>81</v>
       </c>
@@ -4646,8 +4639,8 @@
       </c>
     </row>
     <row r="25" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B25" s="140"/>
-      <c r="C25" s="135"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="134"/>
       <c r="D25" s="67" t="s">
         <v>82</v>
       </c>
@@ -4675,8 +4668,8 @@
       </c>
     </row>
     <row r="26" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B26" s="140"/>
-      <c r="C26" s="133">
+      <c r="B26" s="139"/>
+      <c r="C26" s="132">
         <v>8</v>
       </c>
       <c r="D26" s="14" t="s">
@@ -4704,8 +4697,8 @@
       </c>
     </row>
     <row r="27" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B27" s="140"/>
-      <c r="C27" s="134"/>
+      <c r="B27" s="139"/>
+      <c r="C27" s="133"/>
       <c r="D27" s="67" t="s">
         <v>84</v>
       </c>
@@ -4734,8 +4727,8 @@
       </c>
     </row>
     <row r="28" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B28" s="140"/>
-      <c r="C28" s="134"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="133"/>
       <c r="D28" s="67" t="s">
         <v>85</v>
       </c>
@@ -4763,8 +4756,8 @@
       </c>
     </row>
     <row r="29" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B29" s="140"/>
-      <c r="C29" s="135"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="134"/>
       <c r="D29" s="67" t="s">
         <v>86</v>
       </c>
@@ -4792,8 +4785,8 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B30" s="140"/>
-      <c r="C30" s="133">
+      <c r="B30" s="139"/>
+      <c r="C30" s="132">
         <v>9</v>
       </c>
       <c r="D30" s="67" t="s">
@@ -4823,8 +4816,8 @@
       </c>
     </row>
     <row r="31" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B31" s="140"/>
-      <c r="C31" s="134"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="133"/>
       <c r="D31" s="67" t="s">
         <v>87</v>
       </c>
@@ -4852,8 +4845,8 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B32" s="140"/>
-      <c r="C32" s="134"/>
+      <c r="B32" s="139"/>
+      <c r="C32" s="133"/>
       <c r="D32" s="67" t="s">
         <v>88</v>
       </c>
@@ -4881,8 +4874,8 @@
       </c>
     </row>
     <row r="33" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B33" s="140"/>
-      <c r="C33" s="135"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="134"/>
       <c r="D33" s="67" t="s">
         <v>89</v>
       </c>
@@ -4910,8 +4903,8 @@
       </c>
     </row>
     <row r="34" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B34" s="140"/>
-      <c r="C34" s="133">
+      <c r="B34" s="139"/>
+      <c r="C34" s="132">
         <v>10</v>
       </c>
       <c r="D34" s="9" t="s">
@@ -4938,13 +4931,13 @@
         <f t="shared" si="3"/>
         <v>-15869.006999999998</v>
       </c>
-      <c r="L34" s="118">
+      <c r="L34" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="35" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B35" s="140"/>
-      <c r="C35" s="134"/>
+      <c r="B35" s="139"/>
+      <c r="C35" s="133"/>
       <c r="D35" s="14" t="s">
         <v>90</v>
       </c>
@@ -4970,13 +4963,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L35" s="118">
+      <c r="L35" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="36" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B36" s="140"/>
-      <c r="C36" s="134"/>
+      <c r="B36" s="139"/>
+      <c r="C36" s="133"/>
       <c r="D36" s="14" t="s">
         <v>91</v>
       </c>
@@ -5002,13 +4995,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L36" s="118">
+      <c r="L36" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="37" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B37" s="141"/>
-      <c r="C37" s="135"/>
+      <c r="B37" s="140"/>
+      <c r="C37" s="134"/>
       <c r="D37" s="67" t="s">
         <v>92</v>
       </c>
@@ -5034,7 +5027,7 @@
         <f t="shared" si="3"/>
         <v>-0.29699999999866122</v>
       </c>
-      <c r="L37" s="118">
+      <c r="L37" s="117">
         <v>0.7</v>
       </c>
     </row>
@@ -5044,7 +5037,7 @@
       </c>
     </row>
     <row r="40" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B40" s="136">
+      <c r="B40" s="135">
         <v>2</v>
       </c>
       <c r="C40" s="10">
@@ -5069,7 +5062,7 @@
       </c>
     </row>
     <row r="41" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B41" s="137"/>
+      <c r="B41" s="136"/>
       <c r="C41" s="5">
         <v>2</v>
       </c>
@@ -5092,7 +5085,7 @@
       </c>
     </row>
     <row r="42" spans="2:12" ht="15.75" thickBot="1">
-      <c r="B42" s="137"/>
+      <c r="B42" s="136"/>
       <c r="C42" s="5">
         <v>3</v>
       </c>
@@ -5115,7 +5108,7 @@
       </c>
     </row>
     <row r="43" spans="2:12" ht="65.25" thickBot="1">
-      <c r="B43" s="137"/>
+      <c r="B43" s="136"/>
       <c r="C43" s="5">
         <v>4</v>
       </c>
@@ -5138,7 +5131,7 @@
       </c>
     </row>
     <row r="44" spans="2:12" ht="27" thickBot="1">
-      <c r="B44" s="137"/>
+      <c r="B44" s="136"/>
       <c r="C44" s="5">
         <v>5</v>
       </c>
@@ -5161,7 +5154,7 @@
       </c>
     </row>
     <row r="45" spans="2:12" ht="27" thickBot="1">
-      <c r="B45" s="138"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="5">
         <v>6</v>
       </c>
@@ -5280,10 +5273,10 @@
       </c>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A3" s="145">
+      <c r="A3" s="144">
         <v>3</v>
       </c>
-      <c r="B3" s="148">
+      <c r="B3" s="147">
         <v>2</v>
       </c>
       <c r="C3" s="79" t="s">
@@ -5315,8 +5308,8 @@
       </c>
     </row>
     <row r="4" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="149"/>
+      <c r="A4" s="145"/>
+      <c r="B4" s="148"/>
       <c r="C4" s="79" t="s">
         <v>101</v>
       </c>
@@ -5348,8 +5341,8 @@
       <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A5" s="146"/>
-      <c r="B5" s="149"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="148"/>
       <c r="C5" s="79" t="s">
         <v>102</v>
       </c>
@@ -5385,8 +5378,8 @@
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="149"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="79" t="s">
         <v>103</v>
       </c>
@@ -5421,8 +5414,8 @@
       <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A7" s="146"/>
-      <c r="B7" s="150"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="149"/>
       <c r="C7" s="79" t="s">
         <v>104</v>
       </c>
@@ -5458,8 +5451,8 @@
       <c r="O7" s="1"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A8" s="146"/>
-      <c r="B8" s="148">
+      <c r="A8" s="145"/>
+      <c r="B8" s="147">
         <v>3</v>
       </c>
       <c r="C8" s="79" t="s">
@@ -5495,8 +5488,8 @@
       <c r="O8" s="1"/>
     </row>
     <row r="9" spans="1:15" ht="32.25" thickBot="1">
-      <c r="A9" s="146"/>
-      <c r="B9" s="149"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="148"/>
       <c r="C9" s="56" t="s">
         <v>106</v>
       </c>
@@ -5524,8 +5517,8 @@
       <c r="O9" s="1"/>
     </row>
     <row r="10" spans="1:15" ht="18" customHeight="1" thickBot="1">
-      <c r="A10" s="146"/>
-      <c r="B10" s="149"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="148"/>
       <c r="C10" s="79" t="s">
         <v>107</v>
       </c>
@@ -5555,8 +5548,8 @@
       <c r="O10" s="1"/>
     </row>
     <row r="11" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A11" s="146"/>
-      <c r="B11" s="149"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="148"/>
       <c r="C11" s="79" t="s">
         <v>52</v>
       </c>
@@ -5588,8 +5581,8 @@
       <c r="O11" s="1"/>
     </row>
     <row r="12" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A12" s="146"/>
-      <c r="B12" s="150"/>
+      <c r="A12" s="145"/>
+      <c r="B12" s="149"/>
       <c r="C12" s="79" t="s">
         <v>108</v>
       </c>
@@ -5617,21 +5610,21 @@
       </c>
     </row>
     <row r="13" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A13" s="146"/>
-      <c r="B13" s="148">
+      <c r="A13" s="145"/>
+      <c r="B13" s="147">
         <v>4</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="108">
+      <c r="D13" s="107">
         <v>36.57</v>
       </c>
-      <c r="E13" s="109"/>
+      <c r="E13" s="108"/>
       <c r="F13" s="20">
         <v>0</v>
       </c>
-      <c r="G13" s="108">
+      <c r="G13" s="107">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -5643,8 +5636,8 @@
       <c r="J13" s="95"/>
     </row>
     <row r="14" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A14" s="146"/>
-      <c r="B14" s="149"/>
+      <c r="A14" s="145"/>
+      <c r="B14" s="148"/>
       <c r="C14" s="79" t="s">
         <v>110</v>
       </c>
@@ -5668,8 +5661,8 @@
       </c>
     </row>
     <row r="15" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A15" s="146"/>
-      <c r="B15" s="149"/>
+      <c r="A15" s="145"/>
+      <c r="B15" s="148"/>
       <c r="C15" s="79" t="s">
         <v>111</v>
       </c>
@@ -5697,8 +5690,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="16.5" thickBot="1">
-      <c r="A16" s="146"/>
-      <c r="B16" s="149"/>
+      <c r="A16" s="145"/>
+      <c r="B16" s="148"/>
       <c r="C16" s="79" t="s">
         <v>112</v>
       </c>
@@ -5722,8 +5715,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A17" s="146"/>
-      <c r="B17" s="150"/>
+      <c r="A17" s="145"/>
+      <c r="B17" s="149"/>
       <c r="C17" s="20" t="s">
         <v>113</v>
       </c>
@@ -5744,8 +5737,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A18" s="146"/>
-      <c r="B18" s="148">
+      <c r="A18" s="145"/>
+      <c r="B18" s="147">
         <v>5</v>
       </c>
       <c r="C18" s="21" t="s">
@@ -5768,8 +5761,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A19" s="146"/>
-      <c r="B19" s="149"/>
+      <c r="A19" s="145"/>
+      <c r="B19" s="148"/>
       <c r="C19" s="21" t="s">
         <v>114</v>
       </c>
@@ -5790,8 +5783,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A20" s="146"/>
-      <c r="B20" s="149"/>
+      <c r="A20" s="145"/>
+      <c r="B20" s="148"/>
       <c r="C20" s="79" t="s">
         <v>115</v>
       </c>
@@ -5815,8 +5808,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A21" s="146"/>
-      <c r="B21" s="149"/>
+      <c r="A21" s="145"/>
+      <c r="B21" s="148"/>
       <c r="C21" s="79" t="s">
         <v>116</v>
       </c>
@@ -5844,8 +5837,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A22" s="146"/>
-      <c r="B22" s="150"/>
+      <c r="A22" s="145"/>
+      <c r="B22" s="149"/>
       <c r="C22" s="79" t="s">
         <v>117</v>
       </c>
@@ -5871,8 +5864,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A23" s="146"/>
-      <c r="B23" s="148">
+      <c r="A23" s="145"/>
+      <c r="B23" s="147">
         <v>6</v>
       </c>
       <c r="C23" s="79" t="s">
@@ -5900,8 +5893,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A24" s="146"/>
-      <c r="B24" s="149"/>
+      <c r="A24" s="145"/>
+      <c r="B24" s="148"/>
       <c r="C24" s="79" t="s">
         <v>119</v>
       </c>
@@ -5931,8 +5924,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A25" s="146"/>
-      <c r="B25" s="149"/>
+      <c r="A25" s="145"/>
+      <c r="B25" s="148"/>
       <c r="C25" s="79" t="s">
         <v>120</v>
       </c>
@@ -5960,8 +5953,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A26" s="146"/>
-      <c r="B26" s="149"/>
+      <c r="A26" s="145"/>
+      <c r="B26" s="148"/>
       <c r="C26" s="21" t="s">
         <v>121</v>
       </c>
@@ -5982,8 +5975,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A27" s="146"/>
-      <c r="B27" s="150"/>
+      <c r="A27" s="145"/>
+      <c r="B27" s="149"/>
       <c r="C27" s="79" t="s">
         <v>122</v>
       </c>
@@ -6007,8 +6000,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A28" s="146"/>
-      <c r="B28" s="148">
+      <c r="A28" s="145"/>
+      <c r="B28" s="147">
         <v>7</v>
       </c>
       <c r="C28" s="79" t="s">
@@ -6034,8 +6027,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A29" s="146"/>
-      <c r="B29" s="149"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="148"/>
       <c r="C29" s="79" t="s">
         <v>124</v>
       </c>
@@ -6059,8 +6052,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A30" s="146"/>
-      <c r="B30" s="149"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="148"/>
       <c r="C30" s="79" t="s">
         <v>125</v>
       </c>
@@ -6090,8 +6083,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A31" s="146"/>
-      <c r="B31" s="149"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="148"/>
       <c r="C31" s="56" t="s">
         <v>126</v>
       </c>
@@ -6113,8 +6106,8 @@
       <c r="I31" s="47"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A32" s="146"/>
-      <c r="B32" s="150"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="149"/>
       <c r="C32" s="79" t="s">
         <v>127</v>
       </c>
@@ -6142,8 +6135,8 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="148">
+      <c r="A33" s="145"/>
+      <c r="B33" s="147">
         <v>8</v>
       </c>
       <c r="C33" s="56" t="s">
@@ -6167,8 +6160,8 @@
       <c r="I33" s="47"/>
     </row>
     <row r="34" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A34" s="146"/>
-      <c r="B34" s="149"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="148"/>
       <c r="C34" s="79" t="s">
         <v>46</v>
       </c>
@@ -6198,8 +6191,8 @@
       </c>
     </row>
     <row r="35" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A35" s="146"/>
-      <c r="B35" s="149"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="148"/>
       <c r="C35" s="79" t="s">
         <v>129</v>
       </c>
@@ -6227,8 +6220,8 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A36" s="146"/>
-      <c r="B36" s="149"/>
+      <c r="A36" s="145"/>
+      <c r="B36" s="148"/>
       <c r="C36" s="79" t="s">
         <v>130</v>
       </c>
@@ -6256,8 +6249,8 @@
       </c>
     </row>
     <row r="37" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A37" s="146"/>
-      <c r="B37" s="150"/>
+      <c r="A37" s="145"/>
+      <c r="B37" s="149"/>
       <c r="C37" s="79" t="s">
         <v>131</v>
       </c>
@@ -6287,8 +6280,8 @@
       </c>
     </row>
     <row r="38" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A38" s="146"/>
-      <c r="B38" s="148">
+      <c r="A38" s="145"/>
+      <c r="B38" s="147">
         <v>9</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -6311,8 +6304,8 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A39" s="146"/>
-      <c r="B39" s="149"/>
+      <c r="A39" s="145"/>
+      <c r="B39" s="148"/>
       <c r="C39" s="56" t="s">
         <v>133</v>
       </c>
@@ -6334,8 +6327,8 @@
       <c r="I39" s="47"/>
     </row>
     <row r="40" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A40" s="146"/>
-      <c r="B40" s="149"/>
+      <c r="A40" s="145"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="56" t="s">
         <v>133</v>
       </c>
@@ -6357,8 +6350,8 @@
       <c r="I40" s="47"/>
     </row>
     <row r="41" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A41" s="146"/>
-      <c r="B41" s="149"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="17" t="s">
         <v>134</v>
       </c>
@@ -6379,8 +6372,8 @@
       </c>
     </row>
     <row r="42" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A42" s="146"/>
-      <c r="B42" s="150"/>
+      <c r="A42" s="145"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="79" t="s">
         <v>135</v>
       </c>
@@ -6406,8 +6399,8 @@
       </c>
     </row>
     <row r="43" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A43" s="146"/>
-      <c r="B43" s="148" t="s">
+      <c r="A43" s="145"/>
+      <c r="B43" s="147" t="s">
         <v>136</v>
       </c>
       <c r="C43" s="20" t="s">
@@ -6428,13 +6421,13 @@
         <f>G43*297*0.7</f>
         <v>0</v>
       </c>
-      <c r="K43" s="118">
+      <c r="K43" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A44" s="146"/>
-      <c r="B44" s="149"/>
+      <c r="A44" s="145"/>
+      <c r="B44" s="148"/>
       <c r="C44" s="79" t="s">
         <v>138</v>
       </c>
@@ -6460,13 +6453,13 @@
         <f t="shared" si="3"/>
         <v>3332.8560000000007</v>
       </c>
-      <c r="K44" s="118">
+      <c r="K44" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A45" s="146"/>
-      <c r="B45" s="149"/>
+      <c r="A45" s="145"/>
+      <c r="B45" s="148"/>
       <c r="C45" s="79" t="s">
         <v>139</v>
       </c>
@@ -6492,13 +6485,13 @@
         <f t="shared" si="3"/>
         <v>5192.6669999999995</v>
       </c>
-      <c r="K45" s="118">
+      <c r="K45" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A46" s="146"/>
-      <c r="B46" s="149"/>
+      <c r="A46" s="145"/>
+      <c r="B46" s="148"/>
       <c r="C46" s="17" t="s">
         <v>134</v>
       </c>
@@ -6517,13 +6510,13 @@
         <f t="shared" si="4"/>
         <v>13521.816000000001</v>
       </c>
-      <c r="K46" s="118">
+      <c r="K46" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A47" s="147"/>
-      <c r="B47" s="150"/>
+      <c r="A47" s="146"/>
+      <c r="B47" s="149"/>
       <c r="C47" s="79" t="s">
         <v>140</v>
       </c>
@@ -6545,7 +6538,7 @@
       <c r="I47" s="69">
         <v>23495</v>
       </c>
-      <c r="K47" s="118">
+      <c r="K47" s="117">
         <v>0.7</v>
       </c>
     </row>
@@ -6582,7 +6575,7 @@
       <c r="H50" s="47"/>
     </row>
     <row r="51" spans="1:10" ht="51.75" thickBot="1">
-      <c r="A51" s="142">
+      <c r="A51" s="141">
         <v>3</v>
       </c>
       <c r="B51" s="25">
@@ -6607,7 +6600,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A52" s="143"/>
+      <c r="A52" s="142"/>
       <c r="B52" s="25">
         <v>2</v>
       </c>
@@ -6638,7 +6631,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A53" s="143"/>
+      <c r="A53" s="142"/>
       <c r="B53" s="25">
         <v>3</v>
       </c>
@@ -6662,7 +6655,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A54" s="143"/>
+      <c r="A54" s="142"/>
       <c r="B54" s="25">
         <v>4</v>
       </c>
@@ -6689,7 +6682,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A55" s="143"/>
+      <c r="A55" s="142"/>
       <c r="B55" s="25">
         <v>5</v>
       </c>
@@ -6713,7 +6706,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="51.75" thickBot="1">
-      <c r="A56" s="143"/>
+      <c r="A56" s="142"/>
       <c r="B56" s="25">
         <v>6</v>
       </c>
@@ -6737,7 +6730,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A57" s="143"/>
+      <c r="A57" s="142"/>
       <c r="B57" s="25">
         <v>7</v>
       </c>
@@ -6761,7 +6754,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A58" s="143"/>
+      <c r="A58" s="142"/>
       <c r="B58" s="25">
         <v>8</v>
       </c>
@@ -6788,7 +6781,7 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A59" s="143"/>
+      <c r="A59" s="142"/>
       <c r="B59" s="25">
         <v>9</v>
       </c>
@@ -6819,7 +6812,7 @@
       </c>
     </row>
     <row r="60" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A60" s="144"/>
+      <c r="A60" s="143"/>
       <c r="B60" s="25">
         <v>10</v>
       </c>
@@ -6946,10 +6939,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="139">
+      <c r="A2" s="138">
         <v>4</v>
       </c>
-      <c r="B2" s="133">
+      <c r="B2" s="132">
         <v>2</v>
       </c>
       <c r="C2" s="37" t="s">
@@ -6975,8 +6968,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="134"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="133"/>
       <c r="C3" s="14" t="s">
         <v>57</v>
       </c>
@@ -7000,8 +6993,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="135"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="134"/>
       <c r="C4" s="14" t="s">
         <v>153</v>
       </c>
@@ -7025,8 +7018,8 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="133">
+      <c r="A5" s="139"/>
+      <c r="B5" s="132">
         <v>3</v>
       </c>
       <c r="C5" s="9" t="s">
@@ -7052,8 +7045,8 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A6" s="140"/>
-      <c r="B6" s="134"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="88" t="s">
         <v>155</v>
       </c>
@@ -7076,13 +7069,13 @@
         <v>16085</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J28" si="3">I6-H6</f>
+        <f t="shared" ref="J6:J26" si="3">I6-H6</f>
         <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="140"/>
-      <c r="B7" s="135"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="134"/>
       <c r="C7" s="67" t="s">
         <v>156</v>
       </c>
@@ -7110,8 +7103,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="133">
+      <c r="A8" s="139"/>
+      <c r="B8" s="132">
         <v>4</v>
       </c>
       <c r="C8" s="67" t="s">
@@ -7141,8 +7134,8 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="134"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="9" t="s">
         <v>158</v>
       </c>
@@ -7166,8 +7159,8 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="135"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="134"/>
       <c r="C10" s="67" t="s">
         <v>159</v>
       </c>
@@ -7197,8 +7190,8 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="133">
+      <c r="A11" s="139"/>
+      <c r="B11" s="132">
         <v>5</v>
       </c>
       <c r="C11" s="67" t="s">
@@ -7228,8 +7221,8 @@
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="134"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="67" t="s">
         <v>161</v>
       </c>
@@ -7257,8 +7250,8 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="135"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="134"/>
       <c r="C13" s="67" t="s">
         <v>162</v>
       </c>
@@ -7286,8 +7279,8 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="140"/>
-      <c r="B14" s="133">
+      <c r="A14" s="139"/>
+      <c r="B14" s="132">
         <v>6</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -7317,8 +7310,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="134"/>
+      <c r="A15" s="139"/>
+      <c r="B15" s="133"/>
       <c r="C15" s="67" t="s">
         <v>177</v>
       </c>
@@ -7346,8 +7339,8 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="135"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="134"/>
       <c r="C16" s="67" t="s">
         <v>164</v>
       </c>
@@ -7375,8 +7368,8 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="133">
+      <c r="A17" s="139"/>
+      <c r="B17" s="132">
         <v>7</v>
       </c>
       <c r="C17" s="67" t="s">
@@ -7406,8 +7399,8 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A18" s="140"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="36" t="s">
         <v>166</v>
       </c>
@@ -7431,8 +7424,8 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A19" s="140"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="14" t="s">
         <v>167</v>
       </c>
@@ -7456,8 +7449,8 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="133">
+      <c r="A20" s="139"/>
+      <c r="B20" s="132">
         <v>8</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -7487,8 +7480,8 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A21" s="140"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="9" t="s">
         <v>169</v>
       </c>
@@ -7512,8 +7505,8 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A22" s="140"/>
-      <c r="B22" s="135"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="67" t="s">
         <v>170</v>
       </c>
@@ -7541,8 +7534,8 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A23" s="140"/>
-      <c r="B23" s="133">
+      <c r="A23" s="139"/>
+      <c r="B23" s="132">
         <v>9</v>
       </c>
       <c r="C23" s="67" t="s">
@@ -7574,8 +7567,8 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A24" s="140"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="67" t="s">
         <v>172</v>
       </c>
@@ -7603,8 +7596,8 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="67" t="s">
         <v>173</v>
       </c>
@@ -7632,8 +7625,8 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="133">
+      <c r="A26" s="139"/>
+      <c r="B26" s="132">
         <v>10</v>
       </c>
       <c r="C26" s="14" t="s">
@@ -7657,13 +7650,13 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K26" s="118">
+      <c r="K26" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="14" t="s">
         <v>175</v>
       </c>
@@ -7685,13 +7678,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K27" s="118">
+      <c r="K27" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A28" s="141"/>
-      <c r="B28" s="135"/>
+      <c r="A28" s="140"/>
+      <c r="B28" s="134"/>
       <c r="C28" s="67" t="s">
         <v>176</v>
       </c>
@@ -7717,13 +7710,13 @@
         <f t="shared" si="0"/>
         <v>6731.4709999999995</v>
       </c>
-      <c r="K28" s="118">
+      <c r="K28" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="31" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A31" s="136">
+      <c r="A31" s="135">
         <v>4</v>
       </c>
       <c r="B31" s="10">
@@ -7748,7 +7741,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A32" s="137"/>
+      <c r="A32" s="136"/>
       <c r="B32" s="5">
         <v>2</v>
       </c>
@@ -7775,7 +7768,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" s="137"/>
+      <c r="A33" s="136"/>
       <c r="B33" s="5">
         <v>3</v>
       </c>
@@ -7798,7 +7791,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A34" s="137"/>
+      <c r="A34" s="136"/>
       <c r="B34" s="5">
         <v>4</v>
       </c>
@@ -7821,7 +7814,7 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="27" thickBot="1">
-      <c r="A35" s="138"/>
+      <c r="A35" s="137"/>
       <c r="B35" s="5">
         <v>5</v>
       </c>
@@ -7893,7 +7886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -7935,10 +7928,10 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A2" s="139">
+      <c r="A2" s="138">
         <v>5</v>
       </c>
-      <c r="B2" s="151">
+      <c r="B2" s="150">
         <v>2</v>
       </c>
       <c r="C2" s="103" t="s">
@@ -7968,8 +7961,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A3" s="140"/>
-      <c r="B3" s="152"/>
+      <c r="A3" s="139"/>
+      <c r="B3" s="151"/>
       <c r="C3" s="71" t="s">
         <v>183</v>
       </c>
@@ -7997,8 +7990,8 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A4" s="140"/>
-      <c r="B4" s="152"/>
+      <c r="A4" s="139"/>
+      <c r="B4" s="151"/>
       <c r="C4" s="67" t="s">
         <v>184</v>
       </c>
@@ -8026,8 +8019,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A5" s="140"/>
-      <c r="B5" s="152"/>
+      <c r="A5" s="139"/>
+      <c r="B5" s="151"/>
       <c r="C5" s="67" t="s">
         <v>185</v>
       </c>
@@ -8055,8 +8048,8 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A6" s="140"/>
-      <c r="B6" s="152"/>
+      <c r="A6" s="139"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="67" t="s">
         <v>183</v>
       </c>
@@ -8084,8 +8077,8 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A7" s="140"/>
-      <c r="B7" s="153"/>
+      <c r="A7" s="139"/>
+      <c r="B7" s="152"/>
       <c r="C7" s="67" t="s">
         <v>186</v>
       </c>
@@ -8113,8 +8106,8 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A8" s="140"/>
-      <c r="B8" s="151">
+      <c r="A8" s="139"/>
+      <c r="B8" s="150">
         <v>3</v>
       </c>
       <c r="C8" s="67" t="s">
@@ -8144,8 +8137,8 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A9" s="140"/>
-      <c r="B9" s="152"/>
+      <c r="A9" s="139"/>
+      <c r="B9" s="151"/>
       <c r="C9" s="67" t="s">
         <v>110</v>
       </c>
@@ -8173,8 +8166,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A10" s="140"/>
-      <c r="B10" s="152"/>
+      <c r="A10" s="139"/>
+      <c r="B10" s="151"/>
       <c r="C10" s="67" t="s">
         <v>188</v>
       </c>
@@ -8202,8 +8195,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A11" s="140"/>
-      <c r="B11" s="152"/>
+      <c r="A11" s="139"/>
+      <c r="B11" s="151"/>
       <c r="C11" s="67" t="s">
         <v>189</v>
       </c>
@@ -8231,8 +8224,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A12" s="140"/>
-      <c r="B12" s="152"/>
+      <c r="A12" s="139"/>
+      <c r="B12" s="151"/>
       <c r="C12" s="67" t="s">
         <v>190</v>
       </c>
@@ -8262,8 +8255,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A13" s="140"/>
-      <c r="B13" s="153"/>
+      <c r="A13" s="139"/>
+      <c r="B13" s="152"/>
       <c r="C13" s="14" t="s">
         <v>191</v>
       </c>
@@ -8289,8 +8282,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A14" s="140"/>
-      <c r="B14" s="133">
+      <c r="A14" s="139"/>
+      <c r="B14" s="132">
         <v>4</v>
       </c>
       <c r="C14" s="67" t="s">
@@ -8322,9 +8315,9 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A15" s="140"/>
-      <c r="B15" s="134"/>
-      <c r="C15" s="119" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="118" t="s">
         <v>193</v>
       </c>
       <c r="D15" s="68">
@@ -8350,12 +8343,12 @@
         <v>-0.59999999999854481</v>
       </c>
       <c r="K15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A16" s="140"/>
-      <c r="B16" s="134"/>
+      <c r="A16" s="139"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="67" t="s">
         <v>194</v>
       </c>
@@ -8385,8 +8378,8 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A17" s="140"/>
-      <c r="B17" s="134"/>
+      <c r="A17" s="139"/>
+      <c r="B17" s="133"/>
       <c r="C17" s="67" t="s">
         <v>195</v>
       </c>
@@ -8414,8 +8407,8 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A18" s="140"/>
-      <c r="B18" s="134"/>
+      <c r="A18" s="139"/>
+      <c r="B18" s="133"/>
       <c r="C18" s="67" t="s">
         <v>196</v>
       </c>
@@ -8445,8 +8438,8 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A19" s="140"/>
-      <c r="B19" s="135"/>
+      <c r="A19" s="139"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="14" t="s">
         <v>197</v>
       </c>
@@ -8472,8 +8465,8 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A20" s="140"/>
-      <c r="B20" s="133">
+      <c r="A20" s="139"/>
+      <c r="B20" s="132">
         <v>5</v>
       </c>
       <c r="C20" s="67" t="s">
@@ -8505,8 +8498,8 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A21" s="140"/>
-      <c r="B21" s="134"/>
+      <c r="A21" s="139"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="67" t="s">
         <v>198</v>
       </c>
@@ -8534,8 +8527,8 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A22" s="140"/>
-      <c r="B22" s="134"/>
+      <c r="A22" s="139"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="67" t="s">
         <v>199</v>
       </c>
@@ -8563,8 +8556,8 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A23" s="140"/>
-      <c r="B23" s="134"/>
+      <c r="A23" s="139"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="9" t="s">
         <v>200</v>
       </c>
@@ -8591,8 +8584,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A24" s="140"/>
-      <c r="B24" s="134"/>
+      <c r="A24" s="139"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="9" t="s">
         <v>201</v>
       </c>
@@ -8616,8 +8609,8 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="24.75" thickBot="1">
-      <c r="A25" s="140"/>
-      <c r="B25" s="135"/>
+      <c r="A25" s="139"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="67" t="s">
         <v>202</v>
       </c>
@@ -8647,8 +8640,8 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="140"/>
-      <c r="B26" s="133">
+      <c r="A26" s="139"/>
+      <c r="B26" s="132">
         <v>6</v>
       </c>
       <c r="C26" s="67" t="s">
@@ -8678,8 +8671,8 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A27" s="140"/>
-      <c r="B27" s="134"/>
+      <c r="A27" s="139"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="67" t="s">
         <v>204</v>
       </c>
@@ -8707,8 +8700,8 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A28" s="140"/>
-      <c r="B28" s="134"/>
+      <c r="A28" s="139"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="67" t="s">
         <v>194</v>
       </c>
@@ -8736,8 +8729,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A29" s="140"/>
-      <c r="B29" s="134"/>
+      <c r="A29" s="139"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="67" t="s">
         <v>205</v>
       </c>
@@ -8765,8 +8758,8 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A30" s="140"/>
-      <c r="B30" s="134"/>
+      <c r="A30" s="139"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="9" t="s">
         <v>206</v>
       </c>
@@ -8790,8 +8783,8 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A31" s="140"/>
-      <c r="B31" s="135"/>
+      <c r="A31" s="139"/>
+      <c r="B31" s="134"/>
       <c r="C31" s="67" t="s">
         <v>207</v>
       </c>
@@ -8819,8 +8812,8 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A32" s="140"/>
-      <c r="B32" s="133">
+      <c r="A32" s="139"/>
+      <c r="B32" s="132">
         <v>7</v>
       </c>
       <c r="C32" s="67" t="s">
@@ -8850,8 +8843,8 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A33" s="140"/>
-      <c r="B33" s="134"/>
+      <c r="A33" s="139"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="9" t="s">
         <v>209</v>
       </c>
@@ -8875,8 +8868,8 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A34" s="140"/>
-      <c r="B34" s="134"/>
+      <c r="A34" s="139"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="67" t="s">
         <v>210</v>
       </c>
@@ -8904,8 +8897,8 @@
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A35" s="140"/>
-      <c r="B35" s="134"/>
+      <c r="A35" s="139"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="67" t="s">
         <v>211</v>
       </c>
@@ -8933,8 +8926,8 @@
       </c>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A36" s="140"/>
-      <c r="B36" s="134"/>
+      <c r="A36" s="139"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="67" t="s">
         <v>212</v>
       </c>
@@ -8962,8 +8955,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A37" s="140"/>
-      <c r="B37" s="135"/>
+      <c r="A37" s="139"/>
+      <c r="B37" s="134"/>
       <c r="C37" s="67" t="s">
         <v>213</v>
       </c>
@@ -8991,8 +8984,8 @@
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A38" s="140"/>
-      <c r="B38" s="133">
+      <c r="A38" s="139"/>
+      <c r="B38" s="132">
         <v>8</v>
       </c>
       <c r="C38" s="67" t="s">
@@ -9022,8 +9015,8 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A39" s="140"/>
-      <c r="B39" s="134"/>
+      <c r="A39" s="139"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="14" t="s">
         <v>215</v>
       </c>
@@ -9051,8 +9044,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A40" s="140"/>
-      <c r="B40" s="134"/>
+      <c r="A40" s="139"/>
+      <c r="B40" s="133"/>
       <c r="C40" s="9" t="s">
         <v>216</v>
       </c>
@@ -9079,8 +9072,8 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A41" s="140"/>
-      <c r="B41" s="134"/>
+      <c r="A41" s="139"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="67" t="s">
         <v>217</v>
       </c>
@@ -9108,8 +9101,8 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A42" s="140"/>
-      <c r="B42" s="134"/>
+      <c r="A42" s="139"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="9" t="s">
         <v>218</v>
       </c>
@@ -9133,8 +9126,8 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A43" s="140"/>
-      <c r="B43" s="135"/>
+      <c r="A43" s="139"/>
+      <c r="B43" s="134"/>
       <c r="C43" s="67" t="s">
         <v>219</v>
       </c>
@@ -9162,8 +9155,8 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A44" s="140"/>
-      <c r="B44" s="133">
+      <c r="A44" s="139"/>
+      <c r="B44" s="132">
         <v>9</v>
       </c>
       <c r="C44" s="67" t="s">
@@ -9193,8 +9186,8 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A45" s="140"/>
-      <c r="B45" s="134"/>
+      <c r="A45" s="139"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="67" t="s">
         <v>217</v>
       </c>
@@ -9222,8 +9215,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A46" s="140"/>
-      <c r="B46" s="134"/>
+      <c r="A46" s="139"/>
+      <c r="B46" s="133"/>
       <c r="C46" s="67" t="s">
         <v>221</v>
       </c>
@@ -9251,8 +9244,8 @@
       </c>
     </row>
     <row r="47" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A47" s="140"/>
-      <c r="B47" s="134"/>
+      <c r="A47" s="139"/>
+      <c r="B47" s="133"/>
       <c r="C47" s="67" t="s">
         <v>222</v>
       </c>
@@ -9280,8 +9273,8 @@
       </c>
     </row>
     <row r="48" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A48" s="140"/>
-      <c r="B48" s="134"/>
+      <c r="A48" s="139"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="67" t="s">
         <v>223</v>
       </c>
@@ -9311,8 +9304,8 @@
       </c>
     </row>
     <row r="49" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A49" s="140"/>
-      <c r="B49" s="135"/>
+      <c r="A49" s="139"/>
+      <c r="B49" s="134"/>
       <c r="C49" s="9" t="s">
         <v>224</v>
       </c>
@@ -9336,8 +9329,8 @@
       </c>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A50" s="140"/>
-      <c r="B50" s="133">
+      <c r="A50" s="139"/>
+      <c r="B50" s="132">
         <v>10</v>
       </c>
       <c r="C50" s="14" t="s">
@@ -9363,13 +9356,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K50" s="118">
+      <c r="K50" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A51" s="140"/>
-      <c r="B51" s="134"/>
+      <c r="A51" s="139"/>
+      <c r="B51" s="133"/>
       <c r="C51" s="97" t="s">
         <v>226</v>
       </c>
@@ -9393,13 +9386,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K51" s="118">
+      <c r="K51" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A52" s="140"/>
-      <c r="B52" s="134"/>
+      <c r="A52" s="139"/>
+      <c r="B52" s="133"/>
       <c r="C52" s="67" t="s">
         <v>227</v>
       </c>
@@ -9425,13 +9418,13 @@
         <f t="shared" si="0"/>
         <v>0.18399999999928696</v>
       </c>
-      <c r="K52" s="118">
+      <c r="K52" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A53" s="140"/>
-      <c r="B53" s="134"/>
+      <c r="A53" s="139"/>
+      <c r="B53" s="133"/>
       <c r="C53" s="96" t="s">
         <v>228</v>
       </c>
@@ -9455,13 +9448,13 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K53" s="118">
+      <c r="K53" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A54" s="140"/>
-      <c r="B54" s="134"/>
+      <c r="A54" s="139"/>
+      <c r="B54" s="133"/>
       <c r="C54" s="67" t="s">
         <v>229</v>
       </c>
@@ -9487,13 +9480,13 @@
         <f t="shared" si="0"/>
         <v>4241.1719999999996</v>
       </c>
-      <c r="K54" s="118">
+      <c r="K54" s="117">
         <v>0.7</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A55" s="141"/>
-      <c r="B55" s="135"/>
+      <c r="A55" s="140"/>
+      <c r="B55" s="134"/>
       <c r="C55" s="9" t="s">
         <v>229</v>
       </c>
@@ -9524,7 +9517,7 @@
     </row>
     <row r="57" spans="1:11" ht="15.75" thickBot="1"/>
     <row r="58" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A58" s="136">
+      <c r="A58" s="135">
         <v>5</v>
       </c>
       <c r="B58" s="10">
@@ -9553,7 +9546,7 @@
       </c>
     </row>
     <row r="59" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A59" s="137"/>
+      <c r="A59" s="136"/>
       <c r="B59" s="59">
         <v>2</v>
       </c>
@@ -9584,7 +9577,7 @@
       </c>
     </row>
     <row r="60" spans="1:11" ht="15.75" thickBot="1">
-      <c r="A60" s="138"/>
+      <c r="A60" s="137"/>
       <c r="B60" s="5">
         <v>3</v>
       </c>
@@ -9693,10 +9686,10 @@
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="154" t="s">
+      <c r="A3" s="153" t="s">
         <v>232</v>
       </c>
-      <c r="B3" s="154"/>
+      <c r="B3" s="153"/>
       <c r="C3" s="95" t="s">
         <v>233</v>
       </c>
@@ -9718,8 +9711,8 @@
       <c r="I3" s="95"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="155"/>
-      <c r="B4" s="155"/>
+      <c r="A4" s="154"/>
+      <c r="B4" s="154"/>
       <c r="C4" s="69" t="s">
         <v>250</v>
       </c>
@@ -9743,8 +9736,8 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="155"/>
-      <c r="B5" s="155"/>
+      <c r="A5" s="154"/>
+      <c r="B5" s="154"/>
       <c r="C5" s="69" t="s">
         <v>253</v>
       </c>
@@ -9768,8 +9761,8 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="155"/>
-      <c r="B6" s="155"/>
+      <c r="A6" s="154"/>
+      <c r="B6" s="154"/>
       <c r="C6" t="s">
         <v>234</v>
       </c>
@@ -9789,8 +9782,8 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="155"/>
-      <c r="B7" s="155"/>
+      <c r="A7" s="154"/>
+      <c r="B7" s="154"/>
       <c r="C7" s="69" t="s">
         <v>242</v>
       </c>
@@ -9817,8 +9810,8 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="155"/>
-      <c r="B8" s="155"/>
+      <c r="A8" s="154"/>
+      <c r="B8" s="154"/>
       <c r="C8" s="69" t="s">
         <v>254</v>
       </c>
@@ -9842,8 +9835,8 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="155"/>
-      <c r="B9" s="155"/>
+      <c r="A9" s="154"/>
+      <c r="B9" s="154"/>
       <c r="C9" t="s">
         <v>278</v>
       </c>
@@ -9862,8 +9855,8 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="155"/>
-      <c r="B10" s="155"/>
+      <c r="A10" s="154"/>
+      <c r="B10" s="154"/>
       <c r="C10" s="95" t="s">
         <v>246</v>
       </c>
@@ -9885,8 +9878,8 @@
       <c r="I10" s="95"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="155"/>
-      <c r="B11" s="155"/>
+      <c r="A11" s="154"/>
+      <c r="B11" s="154"/>
       <c r="C11" t="s">
         <v>279</v>
       </c>
@@ -9940,10 +9933,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9953,7 +9946,7 @@
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
       <c r="B1" s="39" t="s">
         <v>0</v>
       </c>
@@ -9967,7 +9960,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9978,7 +9971,7 @@
         <v>2336.4299999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9989,7 +9982,7 @@
         <v>1942.14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10000,7 +9993,7 @@
         <v>2278.04</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10011,7 +10004,7 @@
         <v>1377.51</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10022,7 +10015,7 @@
         <v>2244.9899999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10033,7 +10026,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:6">
       <c r="C8">
         <f>SUM(C2:C7)</f>
         <v>11532.11</v>
@@ -10046,90 +10039,207 @@
         <v>297.98909306276124</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="156" t="s">
-        <v>283</v>
-      </c>
-      <c r="B10" s="156"/>
-      <c r="C10" s="156"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="B11" s="39" t="s">
-        <v>0</v>
-      </c>
-      <c r="C11" s="39" t="s">
+    <row r="10" spans="1:6">
+      <c r="A10" s="155" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B10" s="155"/>
+      <c r="C10" s="155"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="158" t="s">
+        <v>282</v>
+      </c>
+      <c r="B11" s="158"/>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="F11" s="158"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="105"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="105">
+        <v>1</v>
+      </c>
+      <c r="B13" s="105" t="s">
         <v>235</v>
       </c>
-      <c r="C12" s="105">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
+      <c r="C13" s="106">
+        <f>підїзд1!$I$53</f>
+        <v>654455.24100000015</v>
+      </c>
+      <c r="D13" s="105">
+        <f>підїзд1!$J$53</f>
+        <v>651877</v>
+      </c>
+      <c r="E13" s="105">
+        <f>D13*100/C13</f>
+        <v>99.606047772486221</v>
+      </c>
+      <c r="F13" s="105">
+        <f>D13-C13</f>
+        <v>-2578.2410000001546</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="105">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="105" t="s">
         <v>236</v>
       </c>
-      <c r="C13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
+      <c r="C14" s="105">
+        <f>підїзд2!$I$46</f>
+        <v>603863.96400000004</v>
+      </c>
+      <c r="D14" s="105">
+        <f>підїзд2!$J$46</f>
+        <v>538541.1</v>
+      </c>
+      <c r="E14" s="105">
+        <f>D14*100/C14</f>
+        <v>89.182519922649334</v>
+      </c>
+      <c r="F14" s="105">
+        <f>D14-C14</f>
+        <v>-65322.86400000006</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="105">
         <v>3</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="105" t="s">
         <v>237</v>
       </c>
-      <c r="C14">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
+      <c r="C15" s="105">
+        <f>підїзд3!$H$61</f>
+        <v>719831.772</v>
+      </c>
+      <c r="D15" s="105">
+        <f>підїзд3!$I$61</f>
+        <v>590106.16999999993</v>
+      </c>
+      <c r="E15" s="105">
+        <f>D15*100/C15</f>
+        <v>81.978344517974392</v>
+      </c>
+      <c r="F15" s="105">
+        <f>D15-C15</f>
+        <v>-129725.60200000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="105">
         <v>4</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="105" t="s">
         <v>238</v>
       </c>
-      <c r="C15">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
+      <c r="C16" s="105">
+        <f>підїзд4!$H$36</f>
+        <v>425796.12900000002</v>
+      </c>
+      <c r="D16" s="105">
+        <f>підїзд4!$I$36</f>
+        <v>353987</v>
+      </c>
+      <c r="E16" s="105">
+        <f>D16*100/C16</f>
+        <v>83.135326014201496</v>
+      </c>
+      <c r="F16" s="105">
+        <f>D16-C16</f>
+        <v>-71809.129000000015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="105">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" s="105" t="s">
         <v>239</v>
       </c>
-      <c r="C16">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="C17" s="105">
+        <f>підїзд5!$H$61</f>
+        <v>752782.73400000017</v>
+      </c>
+      <c r="D17" s="105">
+        <f>підїзд5!$I$61</f>
+        <v>660217.80000000005</v>
+      </c>
+      <c r="E17" s="105">
+        <f>D17*100/C17</f>
+        <v>87.703632161148889</v>
+      </c>
+      <c r="F17" s="105">
+        <f>D17-C17</f>
+        <v>-92564.934000000125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="105">
         <v>6</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" s="105" t="s">
         <v>232</v>
       </c>
-      <c r="C17">
-        <v>19</v>
+      <c r="C18" s="105">
+        <f>комерція!$H$12</f>
+        <v>399162.06</v>
+      </c>
+      <c r="D18" s="105">
+        <f>комерція!$I$12</f>
+        <v>112300</v>
+      </c>
+      <c r="E18" s="105">
+        <f>D18*100/C18</f>
+        <v>28.133936376618561</v>
+      </c>
+      <c r="F18" s="105">
+        <f>D18-C18</f>
+        <v>-286862.06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="105"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105">
+        <f>SUM(C13:C18)</f>
+        <v>3555891.9000000004</v>
+      </c>
+      <c r="D19" s="105">
+        <f>SUM(D13:D18)</f>
+        <v>2907029.0700000003</v>
+      </c>
+      <c r="E19" s="105">
+        <f>D19*100/C19</f>
+        <v>81.752459066598732</v>
+      </c>
+      <c r="F19" s="105">
+        <f>D19-C19</f>
+        <v>-648862.83000000007</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10139,7 +10249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -10156,265 +10266,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="158"/>
+      <c r="E1" s="158"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="105"/>
+      <c r="B2" s="105" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="105" t="s">
+        <v>260</v>
+      </c>
+      <c r="D2" s="105" t="s">
+        <v>248</v>
+      </c>
+      <c r="E2" s="105" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="105">
+        <v>1</v>
+      </c>
+      <c r="B3" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="C3" s="105" t="s">
+        <v>275</v>
+      </c>
+      <c r="D3" s="105">
+        <v>94500</v>
+      </c>
+      <c r="E3" s="105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="105">
+        <v>2</v>
+      </c>
+      <c r="B4" s="105" t="s">
+        <v>258</v>
+      </c>
+      <c r="C4" s="105" t="s">
+        <v>280</v>
+      </c>
+      <c r="D4" s="105">
+        <v>700000</v>
+      </c>
+      <c r="E4" s="105" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="105">
+        <v>3</v>
+      </c>
+      <c r="B5" s="105" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="105" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" s="105">
+        <v>336850</v>
+      </c>
+      <c r="E5" s="105" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="105">
+        <v>4</v>
+      </c>
+      <c r="B6" s="105" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="105" t="s">
+        <v>281</v>
+      </c>
+      <c r="D6" s="105">
+        <v>196800</v>
+      </c>
+      <c r="E6" s="105" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="105">
+        <v>5</v>
+      </c>
+      <c r="B7" s="105" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" s="105" t="s">
+        <v>270</v>
+      </c>
+      <c r="D7" s="105">
+        <v>99000</v>
+      </c>
+      <c r="E7" s="105" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="105">
+        <v>6</v>
+      </c>
+      <c r="B8" s="105" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="105" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="105">
+        <v>17345</v>
+      </c>
+      <c r="E8" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="159"/>
-      <c r="E1" s="159"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="106"/>
-      <c r="B2" s="106" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="106" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="106" t="s">
-        <v>248</v>
-      </c>
-      <c r="E2" s="106" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="106">
-        <v>1</v>
-      </c>
-      <c r="B3" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="106" t="s">
-        <v>275</v>
-      </c>
-      <c r="D3" s="106">
-        <v>94500</v>
-      </c>
-      <c r="E3" s="106" t="s">
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="105">
+        <v>7</v>
+      </c>
+      <c r="B9" s="105" t="s">
+        <v>273</v>
+      </c>
+      <c r="C9" s="105" t="s">
+        <v>274</v>
+      </c>
+      <c r="D9" s="105">
+        <v>200000</v>
+      </c>
+      <c r="E9" s="105" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="106">
-        <v>2</v>
-      </c>
-      <c r="B4" s="106" t="s">
-        <v>258</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>280</v>
-      </c>
-      <c r="D4" s="106">
-        <v>700000</v>
-      </c>
-      <c r="E4" s="106" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="106">
-        <v>3</v>
-      </c>
-      <c r="B5" s="106" t="s">
-        <v>261</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>264</v>
-      </c>
-      <c r="D5" s="106">
-        <v>336850</v>
-      </c>
-      <c r="E5" s="106" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="106">
-        <v>4</v>
-      </c>
-      <c r="B6" s="106" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="106">
-        <v>196800</v>
-      </c>
-      <c r="E6" s="106" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="106">
-        <v>5</v>
-      </c>
-      <c r="B7" s="106" t="s">
-        <v>268</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>270</v>
-      </c>
-      <c r="D7" s="106">
-        <v>99000</v>
-      </c>
-      <c r="E7" s="106" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="105">
+        <v>8</v>
+      </c>
+      <c r="B10" s="105" t="s">
+        <v>277</v>
+      </c>
+      <c r="C10" s="105" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" s="105">
+        <v>501000</v>
+      </c>
+      <c r="E10" s="105" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="106">
-        <v>6</v>
-      </c>
-      <c r="B8" s="106" t="s">
-        <v>271</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>272</v>
-      </c>
-      <c r="D8" s="106">
-        <v>17345</v>
-      </c>
-      <c r="E8" s="106" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="105">
+        <v>9</v>
+      </c>
+      <c r="B11" s="105" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="105">
+        <v>27927</v>
+      </c>
+      <c r="E11" s="105" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="105">
+        <v>10</v>
+      </c>
+      <c r="B12" s="105" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D12" s="105">
+        <v>15348.96</v>
+      </c>
+      <c r="E12" s="105" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="105">
+        <v>11</v>
+      </c>
+      <c r="B13" s="105" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="106">
-        <v>7</v>
-      </c>
-      <c r="B9" s="106" t="s">
-        <v>273</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>274</v>
-      </c>
-      <c r="D9" s="106">
-        <v>200000</v>
-      </c>
-      <c r="E9" s="106" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="106">
-        <v>8</v>
-      </c>
-      <c r="B10" s="106" t="s">
-        <v>277</v>
-      </c>
-      <c r="C10" s="106" t="s">
-        <v>276</v>
-      </c>
-      <c r="D10" s="106">
-        <v>501000</v>
-      </c>
-      <c r="E10" s="106" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="106">
-        <v>9</v>
-      </c>
-      <c r="B11" s="106" t="s">
-        <v>284</v>
-      </c>
-      <c r="C11" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D11" s="106">
-        <v>27927</v>
-      </c>
-      <c r="E11" s="106" t="s">
+      <c r="C13" s="105" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="106">
-        <v>10</v>
-      </c>
-      <c r="B12" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="C12" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D12" s="106">
-        <v>15348.96</v>
-      </c>
-      <c r="E12" s="106" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="106">
-        <v>11</v>
-      </c>
-      <c r="B13" s="106" t="s">
+      <c r="D13" s="105">
+        <v>18004.14</v>
+      </c>
+      <c r="E13" s="105" t="s">
         <v>295</v>
       </c>
-      <c r="C13" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D13" s="106">
-        <v>18004.14</v>
-      </c>
-      <c r="E13" s="106" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="109">
+        <v>12</v>
+      </c>
+      <c r="B14" s="109" t="s">
+        <v>297</v>
+      </c>
+      <c r="C14" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D14" s="109">
+        <v>24242</v>
+      </c>
+      <c r="E14" s="109" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="110">
-        <v>12</v>
-      </c>
-      <c r="B14" s="110" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="109">
+        <v>13</v>
+      </c>
+      <c r="B15" s="109" t="s">
+        <v>299</v>
+      </c>
+      <c r="C15" s="105" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="109">
+        <v>19316</v>
+      </c>
+      <c r="E15" s="109" t="s">
         <v>298</v>
       </c>
-      <c r="C14" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D14" s="110">
-        <v>24242</v>
-      </c>
-      <c r="E14" s="110" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="110">
-        <v>13</v>
-      </c>
-      <c r="B15" s="110" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="109">
+        <v>14</v>
+      </c>
+      <c r="B16" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="106" t="s">
-        <v>286</v>
-      </c>
-      <c r="D15" s="110">
-        <v>19316</v>
-      </c>
-      <c r="E15" s="110" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="110">
-        <v>14</v>
-      </c>
-      <c r="B16" s="110" t="s">
+      <c r="C16" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="D16" s="109">
+        <v>100000</v>
+      </c>
+      <c r="E16" s="105" t="s">
         <v>301</v>
-      </c>
-      <c r="C16" s="106" t="s">
-        <v>303</v>
-      </c>
-      <c r="D16" s="110">
-        <v>100000</v>
-      </c>
-      <c r="E16" s="106" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10428,336 +10538,336 @@
       </c>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="160" t="s">
+      <c r="A19" s="159" t="s">
+        <v>331</v>
+      </c>
+      <c r="B19" s="159"/>
+      <c r="C19" s="159"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="110" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="105" t="s">
+        <v>303</v>
+      </c>
+      <c r="C20" s="105" t="s">
+        <v>304</v>
+      </c>
+      <c r="D20" s="105" t="s">
+        <v>305</v>
+      </c>
+      <c r="E20" s="105" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="B19" s="160"/>
-      <c r="C19" s="160"/>
-      <c r="D19" s="160"/>
-      <c r="E19" s="160"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="111" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="106" t="s">
-        <v>304</v>
-      </c>
-      <c r="C20" s="106" t="s">
-        <v>305</v>
-      </c>
-      <c r="D20" s="106" t="s">
-        <v>306</v>
-      </c>
-      <c r="E20" s="106" t="s">
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="105">
+        <v>10.08</v>
+      </c>
+      <c r="B21" s="105" t="s">
         <v>307</v>
       </c>
-      <c r="F20" s="115" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="106">
-        <v>10.08</v>
-      </c>
-      <c r="B21" s="106" t="s">
+      <c r="C21" s="105"/>
+      <c r="D21" s="105">
+        <v>42416</v>
+      </c>
+      <c r="E21" s="105" t="s">
         <v>308</v>
-      </c>
-      <c r="C21" s="106"/>
-      <c r="D21" s="106">
-        <v>42416</v>
-      </c>
-      <c r="E21" s="106" t="s">
-        <v>309</v>
       </c>
       <c r="F21">
         <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="112">
+      <c r="A22" s="111">
         <v>17.079999999999998</v>
       </c>
-      <c r="B22" s="112" t="s">
+      <c r="B22" s="111" t="s">
+        <v>309</v>
+      </c>
+      <c r="C22" s="111"/>
+      <c r="D22" s="111">
+        <v>288</v>
+      </c>
+      <c r="E22" s="111" t="s">
         <v>310</v>
       </c>
-      <c r="C22" s="112"/>
-      <c r="D22" s="112">
-        <v>288</v>
-      </c>
-      <c r="E22" s="112" t="s">
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="111">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="B23" s="111" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="112">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="B23" s="112" t="s">
-        <v>312</v>
-      </c>
-      <c r="C23" s="112"/>
-      <c r="D23" s="112">
+      <c r="C23" s="111"/>
+      <c r="D23" s="111">
         <v>30441</v>
       </c>
-      <c r="E23" s="112" t="s">
-        <v>311</v>
+      <c r="E23" s="111" t="s">
+        <v>310</v>
       </c>
       <c r="F23">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="116">
+      <c r="A24" s="115">
         <v>9.09</v>
       </c>
-      <c r="B24" s="116" t="s">
+      <c r="B24" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115">
+        <v>3500</v>
+      </c>
+      <c r="E24" s="115"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="111">
+        <v>9.09</v>
+      </c>
+      <c r="B25" s="156" t="s">
         <v>313</v>
       </c>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116">
-        <v>3500</v>
-      </c>
-      <c r="E24" s="116"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="112">
+      <c r="C25" s="157"/>
+      <c r="D25" s="111">
+        <v>19602</v>
+      </c>
+      <c r="E25" s="111"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="111">
         <v>9.09</v>
       </c>
-      <c r="B25" s="157" t="s">
+      <c r="B26" s="156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C26" s="157"/>
+      <c r="D26" s="111">
+        <v>16632</v>
+      </c>
+      <c r="E26" s="105"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="111">
+        <v>9.09</v>
+      </c>
+      <c r="B27" s="156" t="s">
+        <v>313</v>
+      </c>
+      <c r="C27" s="157"/>
+      <c r="D27" s="111">
+        <v>10098</v>
+      </c>
+      <c r="E27" s="105"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="116"/>
+      <c r="B28" s="115" t="s">
         <v>314</v>
       </c>
-      <c r="C25" s="158"/>
-      <c r="D25" s="112">
-        <v>19602</v>
-      </c>
-      <c r="E25" s="112"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="112">
-        <v>9.09</v>
-      </c>
-      <c r="B26" s="157" t="s">
-        <v>314</v>
-      </c>
-      <c r="C26" s="158"/>
-      <c r="D26" s="112">
-        <v>16632</v>
-      </c>
-      <c r="E26" s="106"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="112">
-        <v>9.09</v>
-      </c>
-      <c r="B27" s="157" t="s">
-        <v>314</v>
-      </c>
-      <c r="C27" s="158"/>
-      <c r="D27" s="112">
-        <v>10098</v>
-      </c>
-      <c r="E27" s="106"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="117"/>
-      <c r="B28" s="116" t="s">
+      <c r="C28" s="115"/>
+      <c r="D28" s="115">
+        <v>2000</v>
+      </c>
+      <c r="E28" s="115"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="112">
+        <v>16.09</v>
+      </c>
+      <c r="B29" s="112" t="s">
         <v>315</v>
       </c>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116">
-        <v>2000</v>
-      </c>
-      <c r="E28" s="116"/>
-    </row>
-    <row r="29" spans="1:10">
-      <c r="A29" s="113">
-        <v>16.09</v>
-      </c>
-      <c r="B29" s="113" t="s">
+      <c r="C29" s="112"/>
+      <c r="D29" s="112">
+        <v>34764</v>
+      </c>
+      <c r="E29" s="112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="105"/>
+      <c r="B30" s="105" t="s">
         <v>316</v>
       </c>
-      <c r="C29" s="113"/>
-      <c r="D29" s="113">
-        <v>34764</v>
-      </c>
-      <c r="E29" s="113" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30" s="106"/>
-      <c r="B30" s="106" t="s">
-        <v>317</v>
-      </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106">
+      <c r="C30" s="105"/>
+      <c r="D30" s="105">
         <v>7250</v>
       </c>
-      <c r="E30" s="106"/>
+      <c r="E30" s="105"/>
       <c r="F30">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="106"/>
-      <c r="B31" s="106" t="s">
+      <c r="A31" s="105"/>
+      <c r="B31" s="105" t="s">
+        <v>317</v>
+      </c>
+      <c r="C31" s="105"/>
+      <c r="D31" s="105">
+        <v>2890</v>
+      </c>
+      <c r="E31" s="105"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="105"/>
+      <c r="B32" s="105" t="s">
         <v>318</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106">
-        <v>2890</v>
-      </c>
-      <c r="E31" s="106"/>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="A32" s="106"/>
-      <c r="B32" s="106" t="s">
+      <c r="C32" s="105"/>
+      <c r="D32" s="105">
+        <v>2560</v>
+      </c>
+      <c r="E32" s="105"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="115"/>
+      <c r="B33" s="115" t="s">
         <v>319</v>
       </c>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106">
-        <v>2560</v>
-      </c>
-      <c r="E32" s="106"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116" t="s">
+      <c r="C33" s="115"/>
+      <c r="D33" s="115">
+        <v>14400</v>
+      </c>
+      <c r="E33" s="115"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="112" t="s">
         <v>320</v>
       </c>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116">
-        <v>14400</v>
-      </c>
-      <c r="E33" s="116"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="113" t="s">
+      <c r="B34" s="112" t="s">
         <v>321</v>
       </c>
-      <c r="B34" s="113" t="s">
+      <c r="C34" s="112"/>
+      <c r="D34" s="112">
+        <v>2520</v>
+      </c>
+      <c r="E34" s="112" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="105"/>
+      <c r="B35" s="105" t="s">
         <v>322</v>
       </c>
-      <c r="C34" s="113"/>
-      <c r="D34" s="113">
-        <v>2520</v>
-      </c>
-      <c r="E34" s="113" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="106"/>
-      <c r="B35" s="106" t="s">
+      <c r="C35" s="105"/>
+      <c r="D35" s="105">
+        <v>2550</v>
+      </c>
+      <c r="E35" s="105"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="105"/>
+      <c r="B36" s="105" t="s">
         <v>323</v>
       </c>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106">
-        <v>2550</v>
-      </c>
-      <c r="E35" s="106"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="106"/>
-      <c r="B36" s="106" t="s">
+      <c r="C36" s="105"/>
+      <c r="D36" s="105">
+        <v>1200</v>
+      </c>
+      <c r="E36" s="105"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="115"/>
+      <c r="B37" s="115" t="s">
         <v>324</v>
       </c>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106">
-        <v>1200</v>
-      </c>
-      <c r="E36" s="106"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116" t="s">
+      <c r="C37" s="115"/>
+      <c r="D37" s="115">
+        <v>7000</v>
+      </c>
+      <c r="E37" s="115"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="115"/>
+      <c r="B38" s="115" t="s">
         <v>325</v>
       </c>
-      <c r="C37" s="116"/>
-      <c r="D37" s="116">
-        <v>7000</v>
-      </c>
-      <c r="E37" s="116"/>
-    </row>
-    <row r="38" spans="1:10">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116" t="s">
+      <c r="C38" s="115"/>
+      <c r="D38" s="115">
+        <v>8500</v>
+      </c>
+      <c r="E38" s="115"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="111">
+        <v>23.09</v>
+      </c>
+      <c r="B39" s="111" t="s">
         <v>326</v>
       </c>
-      <c r="C38" s="116"/>
-      <c r="D38" s="116">
-        <v>8500</v>
-      </c>
-      <c r="E38" s="116"/>
-    </row>
-    <row r="39" spans="1:10">
-      <c r="A39" s="112">
-        <v>23.09</v>
-      </c>
-      <c r="B39" s="112" t="s">
+      <c r="C39" s="111"/>
+      <c r="D39" s="111">
+        <v>1550</v>
+      </c>
+      <c r="E39" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="G39" s="54"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="105"/>
+      <c r="B40" s="105" t="s">
         <v>327</v>
       </c>
-      <c r="C39" s="112"/>
-      <c r="D39" s="112">
-        <v>1550</v>
-      </c>
-      <c r="E39" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="G39" s="54"/>
-    </row>
-    <row r="40" spans="1:10">
-      <c r="A40" s="106"/>
-      <c r="B40" s="106" t="s">
-        <v>328</v>
-      </c>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106">
+      <c r="C40" s="105"/>
+      <c r="D40" s="105">
         <v>10000</v>
       </c>
-      <c r="E40" s="106"/>
+      <c r="E40" s="105"/>
       <c r="F40">
         <v>40</v>
       </c>
       <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="106"/>
-      <c r="B41" s="106" t="s">
-        <v>329</v>
-      </c>
-      <c r="C41" s="106"/>
-      <c r="D41" s="106">
+      <c r="A41" s="105"/>
+      <c r="B41" s="105" t="s">
+        <v>328</v>
+      </c>
+      <c r="C41" s="105"/>
+      <c r="D41" s="105">
         <v>3400</v>
       </c>
-      <c r="E41" s="106"/>
+      <c r="E41" s="105"/>
       <c r="F41" s="54"/>
       <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="106"/>
-      <c r="B42" s="106" t="s">
-        <v>330</v>
-      </c>
-      <c r="C42" s="106"/>
-      <c r="D42" s="106">
+      <c r="A42" s="105"/>
+      <c r="B42" s="105" t="s">
+        <v>329</v>
+      </c>
+      <c r="C42" s="105"/>
+      <c r="D42" s="105">
         <v>2640</v>
       </c>
-      <c r="E42" s="106"/>
+      <c r="E42" s="105"/>
       <c r="F42" s="54"/>
       <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="106"/>
-      <c r="B43" s="106" t="s">
-        <v>331</v>
-      </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106">
+      <c r="A43" s="105"/>
+      <c r="B43" s="105" t="s">
+        <v>330</v>
+      </c>
+      <c r="C43" s="105"/>
+      <c r="D43" s="105">
         <v>5875</v>
       </c>
-      <c r="E43" s="106"/>
+      <c r="E43" s="105"/>
       <c r="F43" s="54">
         <v>23.5</v>
       </c>
@@ -10788,39 +10898,39 @@
       <c r="G45" s="54"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="106" t="s">
+      <c r="A46" s="105" t="s">
+        <v>333</v>
+      </c>
+      <c r="B46" s="105" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="106" t="s">
-        <v>335</v>
-      </c>
-      <c r="C46" s="110">
+      <c r="C46" s="109">
         <v>12.73</v>
       </c>
-      <c r="D46" s="106">
+      <c r="D46" s="105">
         <v>80000</v>
       </c>
-      <c r="E46" s="106" t="s">
-        <v>311</v>
+      <c r="E46" s="105" t="s">
+        <v>310</v>
       </c>
       <c r="F46" s="54"/>
       <c r="G46" s="54"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="106">
+      <c r="A47" s="105">
         <v>1.08</v>
       </c>
-      <c r="B47" s="106" t="s">
-        <v>336</v>
-      </c>
-      <c r="C47" s="106">
+      <c r="B47" s="105" t="s">
+        <v>335</v>
+      </c>
+      <c r="C47" s="105">
         <v>7.6</v>
       </c>
-      <c r="D47" s="106">
+      <c r="D47" s="105">
         <v>47890</v>
       </c>
-      <c r="E47" s="106" t="s">
-        <v>311</v>
+      <c r="E47" s="105" t="s">
+        <v>310</v>
       </c>
       <c r="F47" s="51"/>
       <c r="G47" s="51"/>
@@ -10829,73 +10939,73 @@
       <c r="J47" s="51"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="112"/>
-      <c r="B48" s="112" t="s">
-        <v>337</v>
-      </c>
-      <c r="C48" s="112">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111" t="s">
+        <v>336</v>
+      </c>
+      <c r="C48" s="111">
         <v>9.18</v>
       </c>
-      <c r="D48" s="112">
+      <c r="D48" s="111">
         <v>57834</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
       <c r="F48" s="54"/>
       <c r="G48" s="54"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="112" t="s">
+      <c r="A49" s="111" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="111" t="s">
         <v>338</v>
       </c>
-      <c r="B49" s="112" t="s">
-        <v>339</v>
-      </c>
-      <c r="C49" s="112">
+      <c r="C49" s="111">
         <v>7.43</v>
       </c>
-      <c r="D49" s="112">
+      <c r="D49" s="111">
         <v>46300</v>
       </c>
-      <c r="E49" s="112" t="s">
-        <v>311</v>
+      <c r="E49" s="111" t="s">
+        <v>310</v>
       </c>
       <c r="F49" s="54"/>
       <c r="G49" s="54"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="112">
+      <c r="A50" s="111">
         <v>26.09</v>
       </c>
-      <c r="B50" s="112" t="s">
+      <c r="B50" s="111" t="s">
+        <v>339</v>
+      </c>
+      <c r="C50" s="111">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D50" s="111">
+        <v>51660</v>
+      </c>
+      <c r="E50" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="F50" s="113"/>
+      <c r="G50" s="54"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111" t="s">
         <v>340</v>
       </c>
-      <c r="C50" s="112">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="D50" s="112">
-        <v>51660</v>
-      </c>
-      <c r="E50" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="F50" s="114"/>
-      <c r="G50" s="54"/>
-    </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="112"/>
-      <c r="B51" s="112" t="s">
-        <v>341</v>
-      </c>
-      <c r="C51" s="112">
+      <c r="C51" s="111">
         <v>16.03</v>
       </c>
-      <c r="D51" s="112">
+      <c r="D51" s="111">
         <v>100989</v>
       </c>
-      <c r="E51" s="112" t="s">
-        <v>311</v>
-      </c>
-      <c r="F51" s="111">
+      <c r="E51" s="111" t="s">
+        <v>310</v>
+      </c>
+      <c r="F51" s="110">
         <v>-80989</v>
       </c>
       <c r="G51" s="54"/>
@@ -10947,12 +11057,12 @@
       <c r="F55" s="54"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="114"/>
-      <c r="B56" s="114"/>
-      <c r="C56" s="114"/>
-      <c r="D56" s="114"/>
-      <c r="E56" s="114"/>
-      <c r="F56" s="114"/>
+      <c r="A56" s="113"/>
+      <c r="B56" s="113"/>
+      <c r="C56" s="113"/>
+      <c r="D56" s="113"/>
+      <c r="E56" s="113"/>
+      <c r="F56" s="113"/>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="54"/>
@@ -11003,12 +11113,12 @@
       <c r="F62" s="54"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="114"/>
-      <c r="B63" s="114"/>
-      <c r="C63" s="114"/>
-      <c r="D63" s="114"/>
-      <c r="E63" s="114"/>
-      <c r="F63" s="114"/>
+      <c r="A63" s="113"/>
+      <c r="B63" s="113"/>
+      <c r="C63" s="113"/>
+      <c r="D63" s="113"/>
+      <c r="E63" s="113"/>
+      <c r="F63" s="113"/>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="54"/>
@@ -11092,212 +11202,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:G10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="159" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" s="106" t="s">
-        <v>287</v>
-      </c>
-      <c r="F3" s="106" t="s">
-        <v>289</v>
-      </c>
-      <c r="G3" s="106" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="106">
-        <v>1</v>
-      </c>
-      <c r="C4" s="106" t="s">
-        <v>235</v>
-      </c>
-      <c r="D4" s="107">
-        <f>підїзд1!$I$53</f>
-        <v>654455.24100000015</v>
-      </c>
-      <c r="E4" s="106">
-        <f>підїзд1!$J$53</f>
-        <v>651877</v>
-      </c>
-      <c r="F4" s="106">
-        <f t="shared" ref="F4:F10" si="0">E4*100/D4</f>
-        <v>99.606047772486221</v>
-      </c>
-      <c r="G4" s="106">
-        <f t="shared" ref="G4:G10" si="1">E4-D4</f>
-        <v>-2578.2410000001546</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="106">
-        <v>2</v>
-      </c>
-      <c r="C5" s="106" t="s">
-        <v>236</v>
-      </c>
-      <c r="D5" s="106">
-        <f>підїзд2!$I$46</f>
-        <v>603863.96400000004</v>
-      </c>
-      <c r="E5" s="106">
-        <f>підїзд2!$J$46</f>
-        <v>538541.1</v>
-      </c>
-      <c r="F5" s="106">
-        <f t="shared" si="0"/>
-        <v>89.182519922649334</v>
-      </c>
-      <c r="G5" s="106">
-        <f t="shared" si="1"/>
-        <v>-65322.86400000006</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="106">
-        <v>3</v>
-      </c>
-      <c r="C6" s="106" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="106">
-        <f>підїзд3!$H$61</f>
-        <v>719831.772</v>
-      </c>
-      <c r="E6" s="106">
-        <f>підїзд3!$I$61</f>
-        <v>590106.16999999993</v>
-      </c>
-      <c r="F6" s="106">
-        <f t="shared" si="0"/>
-        <v>81.978344517974392</v>
-      </c>
-      <c r="G6" s="106">
-        <f t="shared" si="1"/>
-        <v>-129725.60200000007</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="106">
-        <v>4</v>
-      </c>
-      <c r="C7" s="106" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="106">
-        <f>підїзд4!$H$36</f>
-        <v>425796.12900000002</v>
-      </c>
-      <c r="E7" s="106">
-        <f>підїзд4!$I$36</f>
-        <v>353987</v>
-      </c>
-      <c r="F7" s="106">
-        <f t="shared" si="0"/>
-        <v>83.135326014201496</v>
-      </c>
-      <c r="G7" s="106">
-        <f t="shared" si="1"/>
-        <v>-71809.129000000015</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="106">
-        <v>5</v>
-      </c>
-      <c r="C8" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="D8" s="106">
-        <f>підїзд5!$H$61</f>
-        <v>752782.73400000017</v>
-      </c>
-      <c r="E8" s="106">
-        <f>підїзд5!$I$61</f>
-        <v>660217.80000000005</v>
-      </c>
-      <c r="F8" s="106">
-        <f t="shared" si="0"/>
-        <v>87.703632161148889</v>
-      </c>
-      <c r="G8" s="106">
-        <f t="shared" si="1"/>
-        <v>-92564.934000000125</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="106">
-        <v>6</v>
-      </c>
-      <c r="C9" s="106" t="s">
-        <v>232</v>
-      </c>
-      <c r="D9" s="106">
-        <f>комерція!$H$12</f>
-        <v>399162.06</v>
-      </c>
-      <c r="E9" s="106">
-        <f>комерція!$I$12</f>
-        <v>112300</v>
-      </c>
-      <c r="F9" s="106">
-        <f t="shared" si="0"/>
-        <v>28.133936376618561</v>
-      </c>
-      <c r="G9" s="106">
-        <f t="shared" si="1"/>
-        <v>-286862.06</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="106"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106">
-        <f>SUM(D4:D9)</f>
-        <v>3555891.9000000004</v>
-      </c>
-      <c r="E10" s="106">
-        <f>SUM(E4:E9)</f>
-        <v>2907029.0700000003</v>
-      </c>
-      <c r="F10" s="106">
-        <f t="shared" si="0"/>
-        <v>81.752459066598732</v>
-      </c>
-      <c r="G10" s="106">
-        <f t="shared" si="1"/>
-        <v>-648862.83000000007</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:G2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/дах/вартість_квадрату_даху.xlsx
+++ b/дах/вартість_квадрату_даху.xlsx
@@ -1941,13 +1941,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9651,7 +9651,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9763,21 +9763,25 @@
     <row r="6" spans="1:10">
       <c r="A6" s="154"/>
       <c r="B6" s="154"/>
-      <c r="C6" t="s">
+      <c r="C6" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="69">
         <v>410</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
+      <c r="E6" s="69"/>
+      <c r="F6" s="69">
+        <v>1</v>
+      </c>
+      <c r="G6" s="69">
         <f t="shared" si="0"/>
         <v>410</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="1"/>
+      <c r="H6" s="69">
+        <f t="shared" si="1"/>
+        <v>121770</v>
+      </c>
+      <c r="I6" s="69">
         <v>121770</v>
       </c>
     </row>
@@ -9909,17 +9913,17 @@
       </c>
       <c r="I12">
         <f>SUM(I3:I11)</f>
-        <v>112300</v>
+        <v>234070</v>
       </c>
       <c r="J12">
         <f>I12*100/H12</f>
-        <v>28.133936376618561</v>
+        <v>58.640342721951079</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="J13">
         <f>I12-H12</f>
-        <v>-286862.06</v>
+        <v>-165092.06</v>
       </c>
     </row>
   </sheetData>
@@ -10047,14 +10051,14 @@
       <c r="C10" s="155"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="158" t="s">
+      <c r="A11" s="156" t="s">
         <v>282</v>
       </c>
-      <c r="B11" s="158"/>
-      <c r="C11" s="158"/>
-      <c r="D11" s="158"/>
-      <c r="E11" s="158"/>
-      <c r="F11" s="158"/>
+      <c r="B11" s="156"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="105"/>
@@ -10088,11 +10092,11 @@
         <v>651877</v>
       </c>
       <c r="E13" s="105">
-        <f>D13*100/C13</f>
+        <f t="shared" ref="E13:E19" si="0">D13*100/C13</f>
         <v>99.606047772486221</v>
       </c>
       <c r="F13" s="105">
-        <f>D13-C13</f>
+        <f t="shared" ref="F13:F19" si="1">D13-C13</f>
         <v>-2578.2410000001546</v>
       </c>
     </row>
@@ -10112,11 +10116,11 @@
         <v>538541.1</v>
       </c>
       <c r="E14" s="105">
-        <f>D14*100/C14</f>
+        <f t="shared" si="0"/>
         <v>89.182519922649334</v>
       </c>
       <c r="F14" s="105">
-        <f>D14-C14</f>
+        <f t="shared" si="1"/>
         <v>-65322.86400000006</v>
       </c>
     </row>
@@ -10136,11 +10140,11 @@
         <v>590106.16999999993</v>
       </c>
       <c r="E15" s="105">
-        <f>D15*100/C15</f>
+        <f t="shared" si="0"/>
         <v>81.978344517974392</v>
       </c>
       <c r="F15" s="105">
-        <f>D15-C15</f>
+        <f t="shared" si="1"/>
         <v>-129725.60200000007</v>
       </c>
     </row>
@@ -10160,11 +10164,11 @@
         <v>353987</v>
       </c>
       <c r="E16" s="105">
-        <f>D16*100/C16</f>
+        <f t="shared" si="0"/>
         <v>83.135326014201496</v>
       </c>
       <c r="F16" s="105">
-        <f>D16-C16</f>
+        <f t="shared" si="1"/>
         <v>-71809.129000000015</v>
       </c>
     </row>
@@ -10184,11 +10188,11 @@
         <v>660217.80000000005</v>
       </c>
       <c r="E17" s="105">
-        <f>D17*100/C17</f>
+        <f t="shared" si="0"/>
         <v>87.703632161148889</v>
       </c>
       <c r="F17" s="105">
-        <f>D17-C17</f>
+        <f t="shared" si="1"/>
         <v>-92564.934000000125</v>
       </c>
     </row>
@@ -10205,15 +10209,15 @@
       </c>
       <c r="D18" s="105">
         <f>комерція!$I$12</f>
-        <v>112300</v>
+        <v>234070</v>
       </c>
       <c r="E18" s="105">
-        <f>D18*100/C18</f>
-        <v>28.133936376618561</v>
+        <f t="shared" si="0"/>
+        <v>58.640342721951079</v>
       </c>
       <c r="F18" s="105">
-        <f>D18-C18</f>
-        <v>-286862.06</v>
+        <f t="shared" si="1"/>
+        <v>-165092.06</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -10225,15 +10229,15 @@
       </c>
       <c r="D19" s="105">
         <f>SUM(D13:D18)</f>
-        <v>2907029.0700000003</v>
+        <v>3028799.0700000003</v>
       </c>
       <c r="E19" s="105">
-        <f>D19*100/C19</f>
-        <v>81.752459066598732</v>
+        <f t="shared" si="0"/>
+        <v>85.176916373638903</v>
       </c>
       <c r="F19" s="105">
-        <f>D19-C19</f>
-        <v>-648862.83000000007</v>
+        <f t="shared" si="1"/>
+        <v>-527092.83000000007</v>
       </c>
     </row>
   </sheetData>
@@ -10266,13 +10270,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="158" t="s">
+      <c r="A1" s="156" t="s">
         <v>292</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="158"/>
-      <c r="E1" s="158"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="105"/>
@@ -10634,10 +10638,10 @@
       <c r="A25" s="111">
         <v>9.09</v>
       </c>
-      <c r="B25" s="156" t="s">
+      <c r="B25" s="157" t="s">
         <v>313</v>
       </c>
-      <c r="C25" s="157"/>
+      <c r="C25" s="158"/>
       <c r="D25" s="111">
         <v>19602</v>
       </c>
@@ -10647,10 +10651,10 @@
       <c r="A26" s="111">
         <v>9.09</v>
       </c>
-      <c r="B26" s="156" t="s">
+      <c r="B26" s="157" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="157"/>
+      <c r="C26" s="158"/>
       <c r="D26" s="111">
         <v>16632</v>
       </c>
@@ -10660,10 +10664,10 @@
       <c r="A27" s="111">
         <v>9.09</v>
       </c>
-      <c r="B27" s="156" t="s">
+      <c r="B27" s="157" t="s">
         <v>313</v>
       </c>
-      <c r="C27" s="157"/>
+      <c r="C27" s="158"/>
       <c r="D27" s="111">
         <v>10098</v>
       </c>
